--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -11,8 +11,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,12 +359,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>roll</t>
+  </si>
+  <si>
+    <t>software</t>
   </si>
 </sst>
 </file>
@@ -359,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -381,6 +387,14 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/myexcel.xlsx
+++ b/myexcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>software</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>dev</t>
   </si>
 </sst>
 </file>
@@ -365,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -395,6 +401,14 @@
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
